--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -343,14 +343,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="5:5">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Лист Microsoft Office Excel.xlsx
+++ b/Лист Microsoft Office Excel.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -343,14 +343,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="6:6">
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
